--- a/data/trans_camb/P34_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P34_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>-6,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>9,93</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-2,98</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-5,41</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10,36</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 3,14</t>
+          <t>-7,97; 2,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,72; -0,48</t>
+          <t>-10,93; -0,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 8,85</t>
+          <t>-12,41; -1,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 4,13</t>
+          <t>5,55; 15,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,93</t>
+          <t>-5,24; 4,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 10,72</t>
+          <t>-3,94; 3,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,52</t>
+          <t>-4,47; 3,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 0,31</t>
+          <t>-7,41; 0,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,55</t>
+          <t>5,82; 13,27</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 2,86</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 1,91</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,09; 0,71</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-8,92; -2,01</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 13,43</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 2,7</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,17%</t>
+          <t>-9,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-21,84%</t>
+          <t>-21,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>-27,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>56,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,42%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,25%</t>
+          <t>-4,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,12%</t>
+          <t>-23,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>75,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-2,93%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-5,3%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-14,04%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-25,53%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>65,64%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-1,52%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 13,25</t>
+          <t>-27,53; 12,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,34; -1,67</t>
+          <t>-37,83; -1,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 37,95</t>
+          <t>-43,62; -5,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 27,3</t>
+          <t>26,46; 99,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 20,22</t>
+          <t>-16,3; 17,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,66; 70,25</t>
+          <t>-20,38; 24,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 12,89</t>
+          <t>-24,09; 20,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,66; 1,56</t>
+          <t>-39,76; 1,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 43,95</t>
+          <t>37,71; 118,55</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-19,31; 13,29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-19,49; 10,03</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-26,59; 3,62</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-39,33; -10,41</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>37,48; 96,16</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 10,77</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-10,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,49</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,73</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-5,83</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 3,1</t>
+          <t>-11,93; 2,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 2,32</t>
+          <t>-13,2; 0,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 4,57</t>
+          <t>-17,66; -2,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 4,76</t>
+          <t>-2,64; 12,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 6,67</t>
+          <t>-10,74; 5,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 6,48</t>
+          <t>-4,9; 4,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 2,22</t>
+          <t>-4,1; 5,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 2,52</t>
+          <t>-5,55; 3,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 4,73</t>
+          <t>-4,34; 7,74</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,08; 6,47</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; 1,84</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 1,68</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-10,42; -1,3</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 7,88</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 4,3</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>-15,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-18,18%</t>
+          <t>-20,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,96%</t>
+          <t>-34,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>-8,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>-1,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,83%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>-5,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,73%</t>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-1,05%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-10,17%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-11,12%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-23,79%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,27%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-5,61%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 11,03</t>
+          <t>-33,28; 9,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 9,21</t>
+          <t>-36,36; 2,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,43; 16,31</t>
+          <t>-50,88; -7,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,93; 31,41</t>
+          <t>-11,97; 72,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 44,38</t>
+          <t>-32,89; 25,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 43,28</t>
+          <t>-24,89; 26,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 10,27</t>
+          <t>-20,38; 36,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 10,88</t>
+          <t>-27,39; 23,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 21,12</t>
+          <t>-24,96; 52,34</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-32,74; 46,72</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-24,9; 8,18</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-25,77; 7,49</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-38,14; -5,24</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-8,8; 47,46</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-25,99; 21,7</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>11,78</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-7,71</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-9,03</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-5,71</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-6,78</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-2,83</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,97</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 12,67</t>
+          <t>-9,94; 11,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 12,0</t>
+          <t>-8,68; 12,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-2,79; 28,18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-17,48; 0,91</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 6,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-17,92; -1,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-14,39; 4,03</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-17,02; 3,33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-10,41; 4,84</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-8,92; 5,4</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-11,13; 3,68</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 5,52</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,1; 13,64</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>49,52%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-30,88%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-34,87%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-22,04%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-26,18%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-11,68%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-6,45%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-15,99%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-7,97%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>10,36%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,52; 68,86</t>
+          <t>-33,69; 60,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 65,14</t>
+          <t>-29,76; 71,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-11,18; 154,41</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-55,14; 7,36</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,83; 30,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-59,78; -5,06</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-46,86; 20,59</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-56,58; 16,79</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-36,26; 26,1</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-32,42; 28,22</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-38,71; 18,95</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-31,99; 26,16</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-21,26; 61,79</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>6,6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,76</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-4,63</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6,78</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 1,47</t>
+          <t>-6,66; 1,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -0,72</t>
+          <t>-8,99; -0,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 5,47</t>
+          <t>-10,5; -1,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 1,92</t>
+          <t>2,27; 11,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,66</t>
+          <t>-4,78; 3,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,88</t>
+          <t>-4,12; 1,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 0,95</t>
+          <t>-3,43; 2,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; -0,15</t>
+          <t>-6,38; -0,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 5,64</t>
+          <t>3,33; 10,0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 2,87</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 0,51</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; -0,02</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; -1,79</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 9,44</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 2,25</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,78%</t>
+          <t>-10,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-17,27%</t>
+          <t>-17,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>-22,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,73%</t>
+          <t>31,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>-2,08%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>-5,81%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>-3,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-11,01%</t>
+          <t>-17,06%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>43,33%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-2,71%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-8,72%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-12,04%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-20,18%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>37,05%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-2,4%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 6,02</t>
+          <t>-22,35; 5,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,29; -2,42</t>
+          <t>-30,24; -3,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 21,71</t>
+          <t>-34,95; -5,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 11,5</t>
+          <t>8,31; 59,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 16,36</t>
+          <t>-15,48; 13,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,4; 48,44</t>
+          <t>-20,62; 10,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 4,79</t>
+          <t>-17,78; 12,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,29; -0,58</t>
+          <t>-31,71; -0,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,32; 26,36</t>
+          <t>20,85; 75,78</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-17,61; 13,79</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-18,92; 2,38</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-22,18; -0,08</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-29,58; -8,41</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>20,61; 54,93</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-12,42; 9,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
